--- a/News_API_list.xlsx
+++ b/News_API_list.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyouwu/Desktop/Intern/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A0648D-C315-C644-AC60-5F9D5E6E57AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -146,17 +152,65 @@
   </si>
   <si>
     <t>https://newsapi.org/v2/everything?sortBy=publishedAt&amp;sources=xinhua-net&amp;pageSize=100&amp;language=en&amp;apiKey=8eb21c4681de4eb6830b271e597accbe</t>
+  </si>
+  <si>
+    <t>https://newsapi.org/v2/everything?sortBy=publishedAt&amp;sources=bbc-news&amp;pageSize=100&amp;language=en&amp;apiKey=8eb21c4681de4eb6830b271e597accbe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newsapi.org/v2/everything?sortBy=publishedAt&amp;sources=nbc-news&amp;pageSize=100&amp;language=en&amp;apiKey=8eb21c4681de4eb6830b271e597accbe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newsapi.org/v2/everything?sortBy=publishedAt&amp;sources=the-washington-post&amp;pageSize=100&amp;language=en&amp;apiKey=8eb21c4681de4eb6830b271e597accbe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newsapi.org/v2/everything?sortBy=publishedAt&amp;sources=cnn&amp;pageSize=100&amp;language=en&amp;apiKey=8eb21c4681de4eb6830b271e597accbe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nbc-news</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newsapi.org/v2/everything?sortBy=publishedAt&amp;sources=fortune&amp;pageSize=100&amp;language=en&amp;apiKey=8eb21c4681de4eb6830b271e597accbe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortune</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>the-washington-post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newsapi.org/v2/top-headlines?country=us&amp;sortBy=publishedAt&amp;category=business&amp;pageSize=100&amp;language=en&amp;apiKey=8eb21c4681de4eb6830b271e597accbe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>business</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -164,7 +218,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -174,6 +228,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,16 +284,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -274,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,9 +375,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,6 +427,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,12 +620,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="19.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -530,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -538,7 +648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -546,7 +656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -554,7 +664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -562,7 +672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -570,7 +680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -578,7 +688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -586,7 +696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -594,7 +704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -602,7 +712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -610,7 +720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -618,7 +728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -626,7 +736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="15">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -634,7 +744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -642,7 +752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -650,7 +760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="15">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -658,7 +768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="15">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -666,7 +776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="15">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -674,7 +784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="15">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -682,7 +792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="15">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -690,7 +800,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="15">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -698,29 +808,87 @@
         <v>43</v>
       </c>
     </row>
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15">
+      <c r="B29" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{8A5518D2-9EED-0240-B9AD-712DEF9DF6DE}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{C6C6AE96-E98B-FD48-B9CC-4FEE3E778005}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{560246BF-1FC8-774C-BAE0-18E5ABAA07EF}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{9C57569B-8019-0741-9295-AF983856B3D6}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{5421E59F-9B00-8C4D-A972-BC2B041305B4}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{8DAE5FBF-34F1-4C43-80E2-E9CFD5E0BBBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
